--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,11 +456,11 @@
       </c>
       <c r="G3" s="3">
         <f>SUM(F3:F5)</f>
-        <v>3300</v>
+        <v>3017</v>
       </c>
       <c r="I3" s="3">
         <f>SUM(G3+G8+G14+G20+G27)</f>
-        <v>18170</v>
+        <v>17887</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -474,14 +474,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>300</v>
+        <f>300+283</f>
+        <v>583</v>
       </c>
       <c r="E4" s="2">
         <v>350</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F5" si="0">B4-C4-D4-E4</f>
-        <v>1650</v>
+        <v>1367</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>

--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -444,23 +444,23 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>500+300+750+400</f>
-        <v>1950</v>
+        <f>750+300+400+139+320</f>
+        <v>1909</v>
       </c>
       <c r="E3" s="2">
         <v>350</v>
       </c>
       <c r="F3" s="3">
         <f>B3-C3-D3-E3</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3">
         <f>SUM(F3:F5)</f>
-        <v>3017</v>
+        <v>3058</v>
       </c>
       <c r="I3" s="3">
         <f>SUM(G3+G8+G14+G20+G27)</f>
-        <v>17887</v>
+        <v>17928</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">

--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\El Jaidroso\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYDRA999\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -444,23 +444,23 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>750+300+400+139+320</f>
-        <v>1909</v>
+        <f>500+300+750+400</f>
+        <v>1950</v>
       </c>
       <c r="E3" s="2">
         <v>350</v>
       </c>
       <c r="F3" s="3">
         <f>B3-C3-D3-E3</f>
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
         <f>SUM(F3:F5)</f>
-        <v>3058</v>
+        <v>2117</v>
       </c>
       <c r="I3" s="3">
         <f>SUM(G3+G8+G14+G20+G27)</f>
-        <v>17928</v>
+        <v>16987</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -474,15 +474,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>300+283</f>
-        <v>583</v>
+        <f>300+283+500+400</f>
+        <v>1483</v>
       </c>
       <c r="E4" s="2">
         <v>350</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F5" si="0">B4-C4-D4-E4</f>
-        <v>1367</v>
+        <v>467</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
@@ -511,6 +511,10 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <f>F5+F8+F9</f>
+        <v>4730</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">

--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HYDRA999\Documents\GitHub\Cortes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\El Jaidroso\Documents\GitHub\Cortes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -456,11 +456,11 @@
       </c>
       <c r="G3" s="3">
         <f>SUM(F3:F5)</f>
-        <v>2117</v>
+        <v>2517</v>
       </c>
       <c r="I3" s="3">
         <f>SUM(G3+G8+G14+G20+G27)</f>
-        <v>16987</v>
+        <v>17387</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -474,15 +474,15 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f>300+283+500+400</f>
-        <v>1483</v>
+        <f>300+283+500</f>
+        <v>1083</v>
       </c>
       <c r="E4" s="2">
         <v>350</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F5" si="0">B4-C4-D4-E4</f>
-        <v>467</v>
+        <v>867</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>

--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
         <v>44576</v>
       </c>
       <c r="B3" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -452,15 +452,15 @@
       </c>
       <c r="F3" s="3">
         <f>B3-C3-D3-E3</f>
-        <v>0</v>
+        <v>-43</v>
       </c>
       <c r="G3" s="3">
         <f>SUM(F3:F5)</f>
-        <v>2517</v>
+        <v>1569</v>
       </c>
       <c r="I3" s="3">
         <f>SUM(G3+G8+G14+G20+G27)</f>
-        <v>17387</v>
+        <v>15751</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>44583</v>
       </c>
       <c r="B4" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -482,7 +482,7 @@
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F5" si="0">B4-C4-D4-E4</f>
-        <v>867</v>
+        <v>824</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="3"/>
@@ -492,20 +492,21 @@
         <v>44590</v>
       </c>
       <c r="B5" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>300</v>
+        <f>300+400+419</f>
+        <v>1119</v>
       </c>
       <c r="E5" s="2">
         <v>350</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>1650</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -514,7 +515,7 @@
       </c>
       <c r="G6" s="3">
         <f>F5+F8+F9</f>
-        <v>4730</v>
+        <v>3782</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -545,7 +546,7 @@
         <v>44597</v>
       </c>
       <c r="B8" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C8" s="2">
         <v>820</v>
@@ -558,11 +559,11 @@
       </c>
       <c r="F8" s="2">
         <f>B8-C8-D8-E8</f>
-        <v>1130</v>
+        <v>1087</v>
       </c>
       <c r="G8" s="3">
         <f>SUM(F8:F11)</f>
-        <v>4980</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -570,7 +571,7 @@
         <v>44604</v>
       </c>
       <c r="B9" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>
@@ -583,7 +584,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" ref="F9:F11" si="1">B9-C9-D9-E9</f>
-        <v>1950</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -591,7 +592,7 @@
         <v>44611</v>
       </c>
       <c r="B10" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C10" s="2">
         <v>0</v>
@@ -604,7 +605,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>907</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -615,7 +616,7 @@
         <v>44618</v>
       </c>
       <c r="B11" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C11" s="2">
         <v>0</v>
@@ -628,7 +629,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>950</v>
+        <v>907</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -665,7 +666,7 @@
         <v>44625</v>
       </c>
       <c r="B14" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C14" s="2">
         <v>820</v>
@@ -678,11 +679,11 @@
       </c>
       <c r="F14" s="2">
         <f>B14-C14-D14-E14</f>
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G14" s="2">
         <f>SUM(F14:F17)</f>
-        <v>2980</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -690,7 +691,7 @@
         <v>44632</v>
       </c>
       <c r="B15" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -703,7 +704,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" ref="F15:F17" si="2">B15-C15-D15-E15</f>
-        <v>950</v>
+        <v>907</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -712,7 +713,7 @@
         <v>44639</v>
       </c>
       <c r="B16" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
@@ -725,7 +726,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>950</v>
+        <v>907</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -734,7 +735,7 @@
         <v>44646</v>
       </c>
       <c r="B17" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -747,7 +748,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>950</v>
+        <v>907</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
@@ -785,7 +786,7 @@
         <v>44653</v>
       </c>
       <c r="B20" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C20" s="2">
         <v>0</v>
@@ -798,11 +799,11 @@
       </c>
       <c r="F20" s="2">
         <f>B20-C20-D20-E20</f>
-        <v>950</v>
+        <v>907</v>
       </c>
       <c r="G20" s="2">
         <f>SUM(F20:F24)</f>
-        <v>3930</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,7 +811,7 @@
         <v>44660</v>
       </c>
       <c r="B21" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C21" s="2">
         <v>820</v>
@@ -823,7 +824,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F24" si="3">B21-C21-D21-E21</f>
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -832,7 +833,7 @@
         <v>44667</v>
       </c>
       <c r="B22" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C22" s="2">
         <v>0</v>
@@ -845,7 +846,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="3"/>
-        <v>950</v>
+        <v>907</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -854,7 +855,7 @@
         <v>44674</v>
       </c>
       <c r="B23" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C23" s="2">
         <v>0</v>
@@ -867,7 +868,7 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="3"/>
-        <v>950</v>
+        <v>907</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -927,7 +928,7 @@
         <v>44688</v>
       </c>
       <c r="B27" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C27" s="2">
         <v>820</v>
@@ -940,11 +941,11 @@
       </c>
       <c r="F27" s="3">
         <f>B27-C27-D27-E27</f>
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="G27" s="3">
         <f>SUM(F27:F30)</f>
-        <v>2980</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -952,7 +953,7 @@
         <v>44695</v>
       </c>
       <c r="B28" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C28" s="2">
         <v>0</v>
@@ -965,7 +966,7 @@
       </c>
       <c r="F28" s="3">
         <f t="shared" ref="F28:F30" si="4">B28-C28-D28-E28</f>
-        <v>950</v>
+        <v>907</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -973,7 +974,7 @@
         <v>44702</v>
       </c>
       <c r="B29" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C29" s="2">
         <v>0</v>
@@ -986,7 +987,7 @@
       </c>
       <c r="F29" s="3">
         <f t="shared" si="4"/>
-        <v>950</v>
+        <v>907</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -994,7 +995,7 @@
         <v>44709</v>
       </c>
       <c r="B30" s="2">
-        <v>2300</v>
+        <v>2257</v>
       </c>
       <c r="C30" s="2">
         <v>0</v>
@@ -1007,7 +1008,7 @@
       </c>
       <c r="F30" s="3">
         <f t="shared" si="4"/>
-        <v>950</v>
+        <v>907</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">

--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -50,10 +50,10 @@
     <t>Gastos</t>
   </si>
   <si>
-    <t>Tanda</t>
+    <t>Total Anual</t>
   </si>
   <si>
-    <t>Total Anual</t>
+    <t>Tanda/Gastos</t>
   </si>
 </sst>
 </file>
@@ -391,13 +391,14 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -430,7 +431,7 @@
         <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -460,7 +461,7 @@
       </c>
       <c r="I3" s="3">
         <f>SUM(G3+G8+G14+G20+G27)</f>
-        <v>15751</v>
+        <v>15151</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -515,7 +516,11 @@
       </c>
       <c r="G6" s="3">
         <f>F5+F8+F9</f>
-        <v>3782</v>
+        <v>3182</v>
+      </c>
+      <c r="H6" s="3">
+        <f>15000+G6</f>
+        <v>18182</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -529,7 +534,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -552,18 +557,18 @@
         <v>820</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E8" s="2">
         <v>350</v>
       </c>
       <c r="F8" s="2">
         <f>B8-C8-D8-E8</f>
-        <v>1087</v>
+        <v>487</v>
       </c>
       <c r="G8" s="3">
         <f>SUM(F8:F11)</f>
-        <v>4808</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -649,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -769,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -911,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>

--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,14 +455,8 @@
         <f>B3-C3-D3-E3</f>
         <v>-43</v>
       </c>
-      <c r="G3" s="3">
-        <f>SUM(F3:F5)</f>
-        <v>1569</v>
-      </c>
-      <c r="I3" s="3">
-        <f>SUM(G3+G8+G14+G20+G27)</f>
-        <v>15151</v>
-      </c>
+      <c r="G3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -514,14 +508,8 @@
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
-        <f>F5+F8+F9</f>
-        <v>3182</v>
-      </c>
-      <c r="H6" s="3">
-        <f>15000+G6</f>
-        <v>18182</v>
-      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -567,8 +555,8 @@
         <v>487</v>
       </c>
       <c r="G8" s="3">
-        <f>SUM(F8:F11)</f>
-        <v>4208</v>
+        <f>14000+F8+F9</f>
+        <v>16094</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -582,14 +570,14 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E9" s="2">
         <v>350</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" ref="F9:F11" si="1">B9-C9-D9-E9</f>
-        <v>1907</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -686,10 +674,7 @@
         <f>B14-C14-D14-E14</f>
         <v>87</v>
       </c>
-      <c r="G14" s="2">
-        <f>SUM(F14:F17)</f>
-        <v>2808</v>
-      </c>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -806,10 +791,7 @@
         <f>B20-C20-D20-E20</f>
         <v>907</v>
       </c>
-      <c r="G20" s="2">
-        <f>SUM(F20:F24)</f>
-        <v>3758</v>
-      </c>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -948,10 +930,7 @@
         <f>B27-C27-D27-E27</f>
         <v>87</v>
       </c>
-      <c r="G27" s="3">
-        <f>SUM(F27:F30)</f>
-        <v>2808</v>
-      </c>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">

--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -391,7 +391,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,10 +554,7 @@
         <f>B8-C8-D8-E8</f>
         <v>487</v>
       </c>
-      <c r="G8" s="3">
-        <f>14000+F8+F9</f>
-        <v>16094</v>
-      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -591,14 +588,14 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E10" s="2">
         <v>350</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="1"/>
-        <v>907</v>
+        <v>607</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -615,14 +612,14 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E11" s="2">
         <v>350</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="1"/>
-        <v>907</v>
+        <v>607</v>
       </c>
       <c r="I11" s="1"/>
     </row>

--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="10">
   <si>
     <t>Saldo</t>
   </si>
@@ -80,12 +81,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,12 +108,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -388,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
@@ -551,10 +562,12 @@
         <v>350</v>
       </c>
       <c r="F8" s="2">
-        <f>B8-C8-D8-E8</f>
-        <v>487</v>
-      </c>
-      <c r="G8" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <f>F10+F11-820</f>
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -573,8 +586,7 @@
         <v>350</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ref="F9:F11" si="1">B9-C9-D9-E9</f>
-        <v>1607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -594,8 +606,8 @@
         <v>350</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>607</v>
+        <f>B10-C10-D10-E10-290</f>
+        <v>317</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -618,7 +630,7 @@
         <v>350</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F9:F11" si="1">B11-C11-D11-E11</f>
         <v>607</v>
       </c>
       <c r="I11" s="1"/>
@@ -659,19 +671,22 @@
         <v>2257</v>
       </c>
       <c r="C14" s="2">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="2">
         <v>350</v>
       </c>
       <c r="F14" s="2">
-        <f>B14-C14-D14-E14</f>
-        <v>87</v>
-      </c>
-      <c r="G14" s="2"/>
+        <f t="shared" ref="F14:F17" si="2">B14-C14-D14-E14</f>
+        <v>607</v>
+      </c>
+      <c r="G14" s="2">
+        <f>F14+F15+F16+F17-800</f>
+        <v>1628</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -684,14 +699,14 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E15" s="2">
         <v>350</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" ref="F15:F17" si="2">B15-C15-D15-E15</f>
-        <v>907</v>
+        <f t="shared" si="2"/>
+        <v>607</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -706,14 +721,15 @@
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>1000</v>
+        <f>1300</f>
+        <v>1300</v>
       </c>
       <c r="E16" s="2">
         <v>350</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>907</v>
+        <v>607</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -728,14 +744,14 @@
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="2">
         <v>350</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>907</v>
+        <v>607</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="3"/>
@@ -779,16 +795,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="2">
         <v>350</v>
       </c>
       <c r="F20" s="2">
         <f>B20-C20-D20-E20</f>
-        <v>907</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>607</v>
+      </c>
+      <c r="G20" s="2">
+        <f>F20+F21+F22+F23+F24</f>
+        <v>2558</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -801,14 +820,14 @@
         <v>820</v>
       </c>
       <c r="D21" s="2">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E21" s="2">
         <v>350</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ref="F21:F24" si="3">B21-C21-D21-E21</f>
-        <v>87</v>
+        <v>-213</v>
       </c>
       <c r="G21" s="2"/>
     </row>
@@ -823,14 +842,14 @@
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="2">
         <v>350</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="3"/>
-        <v>907</v>
+        <v>607</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -845,14 +864,14 @@
         <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="E23" s="2">
         <v>350</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="3"/>
-        <v>907</v>
+        <v>607</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -927,7 +946,10 @@
         <f>B27-C27-D27-E27</f>
         <v>87</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3">
+        <f>F27+F28+F29+F30</f>
+        <v>2808</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -951,25 +973,26 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>44702</v>
       </c>
-      <c r="B29" s="2">
-        <v>2257</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="2">
-        <v>350</v>
-      </c>
-      <c r="F29" s="3">
+      <c r="B29" s="6">
+        <v>2257</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="6">
+        <v>350</v>
+      </c>
+      <c r="F29" s="7">
         <f t="shared" si="4"/>
         <v>907</v>
       </c>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -992,42 +1015,857 @@
         <v>907</v>
       </c>
     </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="A33" s="4">
+        <v>44716</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C33" s="2">
+        <v>820</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="2">
+        <v>350</v>
+      </c>
+      <c r="F33" s="3">
+        <f>B33-C33-D33-E33</f>
+        <v>87</v>
+      </c>
+      <c r="G33" s="3">
+        <f>F33+F34+F35+F36</f>
+        <v>2808</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
+      <c r="A34" s="4">
+        <v>44723</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="2">
+        <v>350</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" ref="F34:F36" si="5">B34-C34-D34-E34</f>
+        <v>907</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
+      <c r="A35" s="4">
+        <v>44730</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="2">
+        <v>350</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="5"/>
+        <v>907</v>
+      </c>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
+      <c r="A36" s="4">
+        <v>44737</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>350</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="5"/>
+        <v>907</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="3"/>
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>44744</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C39" s="2">
+        <v>820</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E39" s="2">
+        <v>350</v>
+      </c>
+      <c r="F39" s="3">
+        <f>B39-C39-D39-E39</f>
+        <v>87</v>
+      </c>
+      <c r="G39" s="3">
+        <f>F39+F40+F41+F42+F43</f>
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>44751</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="2">
+        <v>350</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" ref="F40:F43" si="6">B40-C40-D40-E40</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>44758</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="2">
+        <v>350</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="6"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>44765</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="2">
+        <v>350</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="6"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>44772</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="2">
+        <v>350</v>
+      </c>
+      <c r="F43" s="3">
+        <f>B43-C43-D43-E43</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44779</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C46" s="2">
+        <v>820</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="2">
+        <v>350</v>
+      </c>
+      <c r="F46" s="3">
+        <f>B46-C46-D46-E46</f>
+        <v>87</v>
+      </c>
+      <c r="G46" s="3">
+        <f>F46+F47+F48+F49+F50</f>
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>44786</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>350</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" ref="F47:F50" si="7">B47-C47-D47-E47</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>44793</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>350</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="7"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44800</v>
+      </c>
+      <c r="B49" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="2">
+        <v>350</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="7"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>44807</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C52" s="2">
+        <v>820</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="2">
+        <v>350</v>
+      </c>
+      <c r="F52" s="3">
+        <f>B52-C52-D52-E52</f>
+        <v>87</v>
+      </c>
+      <c r="G52" s="3">
+        <f>F52+F53+F54+F55+F56</f>
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>44814</v>
+      </c>
+      <c r="B53" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E53" s="2">
+        <v>350</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" ref="F53:F55" si="8">B53-C53-D53-E53</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>44821</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="2">
+        <v>350</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="8"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>44828</v>
+      </c>
+      <c r="B55" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E55" s="2">
+        <v>350</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="8"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C58" s="2">
+        <v>820</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="2">
+        <v>350</v>
+      </c>
+      <c r="F58" s="3">
+        <f>B58-C58-D58-E58</f>
+        <v>87</v>
+      </c>
+      <c r="G58" s="3">
+        <f>F58+F59+F60+F61+F62</f>
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>44842</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="2">
+        <v>350</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" ref="F59:F61" si="9">B59-C59-D59-E59</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>44849</v>
+      </c>
+      <c r="B60" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="2">
+        <v>350</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="9"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>44856</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="2">
+        <v>350</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="9"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>44863</v>
+      </c>
+      <c r="B62" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="2">
+        <v>350</v>
+      </c>
+      <c r="F62" s="3">
+        <f>B62-C62-D62-E62</f>
+        <v>907</v>
+      </c>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>44870</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C65" s="2">
+        <v>820</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E65" s="2">
+        <v>350</v>
+      </c>
+      <c r="F65" s="3">
+        <f>B65-C65-D65-E65</f>
+        <v>87</v>
+      </c>
+      <c r="G65" s="3">
+        <f>F65+F66+F67+F68+F69</f>
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>44877</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E66" s="2">
+        <v>350</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" ref="F66:F68" si="10">B66-C66-D66-E66</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>44884</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E67" s="2">
+        <v>350</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="10"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>44891</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2257</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E68" s="2">
+        <v>350</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="10"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>44605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44647</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44703</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="G8" s="3">
         <f>F10+F11-820</f>
-        <v>104</v>
+        <v>-87.700000000000045</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -627,11 +627,11 @@
         <v>1300</v>
       </c>
       <c r="E11" s="2">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ref="F9:F11" si="1">B11-C11-D11-E11</f>
-        <v>607</v>
+        <f>B11-C11-D11-E11-50-491.7</f>
+        <v>415.3</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -680,7 +680,7 @@
         <v>350</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ref="F14:F17" si="2">B14-C14-D14-E14</f>
+        <f t="shared" ref="F14:F17" si="1">B14-C14-D14-E14</f>
         <v>607</v>
       </c>
       <c r="G14" s="2">
@@ -705,7 +705,7 @@
         <v>350</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="G15" s="2"/>
@@ -728,7 +728,7 @@
         <v>350</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="G16" s="2"/>
@@ -750,7 +750,7 @@
         <v>350</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>607</v>
       </c>
       <c r="G17" s="2"/>
@@ -826,7 +826,7 @@
         <v>350</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ref="F21:F24" si="3">B21-C21-D21-E21</f>
+        <f t="shared" ref="F21:F24" si="2">B21-C21-D21-E21</f>
         <v>-213</v>
       </c>
       <c r="G21" s="2"/>
@@ -848,7 +848,7 @@
         <v>350</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>607</v>
       </c>
       <c r="G22" s="2"/>
@@ -870,7 +870,7 @@
         <v>350</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>607</v>
       </c>
       <c r="G23" s="2"/>
@@ -892,7 +892,7 @@
         <v>350</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>950</v>
       </c>
       <c r="G24" s="2"/>
@@ -968,7 +968,7 @@
         <v>350</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" ref="F28:F30" si="4">B28-C28-D28-E28</f>
+        <f t="shared" ref="F28:F30" si="3">B28-C28-D28-E28</f>
         <v>907</v>
       </c>
     </row>
@@ -989,7 +989,7 @@
         <v>350</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>907</v>
       </c>
       <c r="G29" s="8"/>
@@ -1011,7 +1011,7 @@
         <v>350</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>907</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
         <v>350</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" ref="F34:F36" si="5">B34-C34-D34-E34</f>
+        <f t="shared" ref="F34:F36" si="4">B34-C34-D34-E34</f>
         <v>907</v>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
         <v>350</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>907</v>
       </c>
       <c r="H35" s="3"/>
@@ -1128,7 +1128,7 @@
         <v>350</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>907</v>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
         <v>350</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" ref="F40:F43" si="6">B40-C40-D40-E40</f>
+        <f t="shared" ref="F40:F42" si="5">B40-C40-D40-E40</f>
         <v>907</v>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
         <v>350</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>907</v>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
         <v>350</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>907</v>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
         <v>350</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" ref="F47:F50" si="7">B47-C47-D47-E47</f>
+        <f t="shared" ref="F47:F49" si="6">B47-C47-D47-E47</f>
         <v>907</v>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
         <v>350</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>907</v>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
         <v>350</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>907</v>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
         <v>350</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" ref="F53:F55" si="8">B53-C53-D53-E53</f>
+        <f t="shared" ref="F53:F55" si="7">B53-C53-D53-E53</f>
         <v>907</v>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
         <v>350</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>907</v>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
         <v>350</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>907</v>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
         <v>350</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" ref="F59:F61" si="9">B59-C59-D59-E59</f>
+        <f t="shared" ref="F59:F61" si="8">B59-C59-D59-E59</f>
         <v>907</v>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
         <v>350</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>907</v>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
         <v>350</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>907</v>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
         <v>350</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" ref="F66:F68" si="10">B66-C66-D66-E66</f>
+        <f t="shared" ref="F66:F68" si="9">B66-C66-D66-E66</f>
         <v>907</v>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
         <v>350</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>907</v>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
         <v>350</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>907</v>
       </c>
     </row>

--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -401,8 +401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,21 +671,25 @@
         <v>2257</v>
       </c>
       <c r="C14" s="2">
-        <v>0</v>
+        <v>820</v>
       </c>
       <c r="D14" s="2">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="2">
         <v>350</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ref="F14:F17" si="1">B14-C14-D14-E14</f>
-        <v>607</v>
+        <v>87</v>
       </c>
       <c r="G14" s="2">
         <f>F14+F15+F16+F17-800</f>
-        <v>1628</v>
+        <v>1108</v>
+      </c>
+      <c r="H14" s="3">
+        <f>G14+G20+G27</f>
+        <v>6474</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">

--- a/Nuevo Proyecto.xlsx
+++ b/Nuevo Proyecto.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="11">
   <si>
     <t>Saldo</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Tanda/Gastos</t>
+  </si>
+  <si>
+    <t>Prestamo</t>
   </si>
 </sst>
 </file>
@@ -401,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,11 +688,11 @@
       </c>
       <c r="G14" s="2">
         <f>F14+F15+F16+F17-800</f>
-        <v>1108</v>
+        <v>1058</v>
       </c>
       <c r="H14" s="3">
         <f>G14+G20+G27</f>
-        <v>6474</v>
+        <v>6424</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -709,8 +712,8 @@
         <v>350</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
-        <v>607</v>
+        <f>B15-C15-D15-E15-50</f>
+        <v>557</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1785,90 +1788,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
-        <v>44605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44612</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44576</v>
+      </c>
+      <c r="B2" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>44619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44583</v>
+      </c>
+      <c r="B3" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44590</v>
+      </c>
+      <c r="B4" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>44633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44597</v>
+      </c>
+      <c r="B5" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44640</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44604</v>
+      </c>
+      <c r="B6" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>44647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44611</v>
+      </c>
+      <c r="B7" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44654</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44618</v>
+      </c>
+      <c r="B8" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>44661</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44625</v>
+      </c>
+      <c r="B9" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44632</v>
+      </c>
+      <c r="B10" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>44675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>44689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>44696</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>44703</v>
+        <v>44639</v>
+      </c>
+      <c r="B11" s="2">
+        <f>SUM(B2:B10)</f>
+        <v>2700</v>
       </c>
     </row>
   </sheetData>
